--- a/src/test/resources/com/rf/test/website/storeFront/ReturnTheOrdersTest.xlsx
+++ b/src/test/resources/com/rf/test/website/storeFront/ReturnTheOrdersTest.xlsx
@@ -3,323 +3,325 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnarayanan\workspace\rf-automation\src\test\resources\com\rf\test\website\storeFront\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="returnTheOrders" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
+    <t>autopcwpwsspon20170304005732@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170304003824@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170304004645@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170304002534@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303211147@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303105429@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303233338@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303222129@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303231509@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303230345@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303220226@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303222008@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303215116@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303214028@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303214550@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303213502@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303212945@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303203822@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303203007@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303203341@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303202554@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303202600@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303201711@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303201728@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303201009@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303201031@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303194917@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303200845@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303194843@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303194500@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303194400@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303193815@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303193806@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303192910@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303191837@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303191845@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303190435@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303174228@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303185952@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303185507@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303184837@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303184850@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303183729@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303183223@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303183635@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303182444@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303181926@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303181002@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303181029@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303181847@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303180014@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303175502@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303174647@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303174721@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303174817@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303174313@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303171159@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303171200@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303170549@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303171126@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303170616@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303170635@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303164045@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303165138@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303164925@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303164704@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303164559@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303164218@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303164513@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303155053@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303162449@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303161851@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303161956@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303162024@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303161523@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303155103@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303160832@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303145443@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303152543@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303152419@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303152853@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303152051@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303150621@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303150401@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303145853@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303145824@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303145341@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303142702@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303144959@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303142852@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303142442@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303141953@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303142209@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303135247@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303140235@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303135804@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303135333@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303135302@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303133828@mailinator.com</t>
+  </si>
+  <si>
+    <t>autopcwpwsspon20170303132927@mailinator.com</t>
+  </si>
+  <si>
     <t>PCUserEmails</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170304005732@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170304003824@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170304004645@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170304002534@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303211147@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303105429@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303233338@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303222129@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303231509@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303230345@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303220226@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303222008@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303215116@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303214028@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303214550@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303213502@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303212945@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303203822@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303203007@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303203341@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303202554@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303202600@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303201711@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303201728@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303201009@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303201031@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303194917@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303200845@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303194843@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303194500@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303194400@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303193815@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303193806@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303192910@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303191837@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303191845@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303190435@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303174228@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303185952@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303185507@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303184837@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303184850@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303183729@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303183223@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303183635@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303182444@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303181926@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303181002@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303181029@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303181847@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303180014@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303175502@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303174647@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303174721@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303174817@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303174313@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303171159@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303171200@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303170549@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303171126@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303170616@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303170635@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303164045@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303165138@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303164925@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303164704@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303164559@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303164218@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303164513@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303155053@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303162449@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303161851@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303161956@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303162024@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303161523@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303155103@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303160832@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303145443@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303152543@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303152419@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303152853@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303152051@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303150621@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303150401@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303145853@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303145824@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303145341@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303142702@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303144959@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303142852@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303142442@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303141953@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303142209@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303135247@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303140235@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303135804@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303135333@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303135302@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303133828@mailinator.com</t>
-  </si>
-  <si>
-    <t>autopcwpwsspon20170303132927@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -334,6 +336,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -365,10 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,550 +654,522 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="C2 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="C2 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>